--- a/BAF510채권/hw2/hw2.xlsx
+++ b/BAF510채권/hw2/hw2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caten\Dropbox\[510] 채권분석\hw_exam_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VSCodeProjects\KAIST_MFE\BAF510채권\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D68EA2-5CEB-4529-9F50-F4E7EB319255}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9253D66B-177B-4634-8CD6-F9CC272B8D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6765" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,26 +47,41 @@
     <t>par yield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>zero/spot</t>
+  </si>
+  <si>
+    <t>discount factor</t>
+  </si>
+  <si>
+    <t>par yield 2</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -85,19 +109,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,21 +402,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D4A148-0405-491E-A6F8-7A15A4094940}">
-  <dimension ref="A1:H22"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +427,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -410,9 +447,20 @@
       <c r="C2">
         <v>5.36</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D2" s="3">
+        <f>C2/100</f>
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2</f>
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="G2">
+        <f>1/(1+F2)^A2</f>
+        <v>0.97423139106729983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -422,21 +470,29 @@
       <c r="C3">
         <v>5.01</v>
       </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D21" si="0">C3/100</f>
+        <v>5.0099999999999999E-2</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1.5</v>
       </c>
       <c r="B4">
         <v>3</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
@@ -445,23 +501,31 @@
       </c>
       <c r="C5">
         <v>4.62</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2.5</v>
       </c>
       <c r="B6">
         <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>3</v>
       </c>
@@ -470,45 +534,61 @@
       </c>
       <c r="C7">
         <v>4.42</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4199999999999996E-2</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>3.5</v>
       </c>
       <c r="B8">
         <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9">
         <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>4.5</v>
       </c>
       <c r="B10">
         <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>5</v>
       </c>
@@ -517,45 +597,61 @@
       </c>
       <c r="C11">
         <v>4.26</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="E11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>5.5</v>
       </c>
       <c r="B12">
         <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13">
         <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>6.5</v>
       </c>
       <c r="B14">
         <v>13</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>7</v>
       </c>
@@ -564,67 +660,91 @@
       </c>
       <c r="C15">
         <v>4.28</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2800000000000005E-2</v>
       </c>
       <c r="E15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>7.5</v>
       </c>
       <c r="B16">
         <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17">
         <v>16</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>8.5</v>
       </c>
       <c r="B18">
         <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19">
         <v>18</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>9.5</v>
       </c>
       <c r="B20">
         <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>10</v>
       </c>
@@ -634,10 +754,146 @@
       <c r="C21">
         <v>4.2699999999999996</v>
       </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2699999999999995E-2</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8">
       <c r="E22" s="1"/>
+    </row>
+    <row r="33" spans="6:11">
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>0.03</v>
+      </c>
+      <c r="H33">
+        <v>0.05</v>
+      </c>
+      <c r="I33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11">
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <f>1/(1+G33)</f>
+        <v>0.970873786407767</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:J34" si="1">1/(1+H33)</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.93457943925233644</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0.9174311926605504</v>
+      </c>
+    </row>
+    <row r="37" spans="6:11">
+      <c r="G37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="6:11">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="6:11">
+      <c r="F39">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="G39">
+        <f>$G$37*$F$39</f>
+        <v>8.57</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:I39" si="2">$G$37*$F$39</f>
+        <v>8.57</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>8.57</v>
+      </c>
+      <c r="J39">
+        <f>F39*G37+G37</f>
+        <v>108.57</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11">
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <f>G39*(G34)^G38</f>
+        <v>8.3203883495145643</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:J40" si="3">H39*(H34)^H38</f>
+        <v>7.7732426303854876</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>6.9956728049546015</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>76.913725165348367</v>
+      </c>
+      <c r="K40">
+        <f>SUM(G40:J40)</f>
+        <v>100.00302895020302</v>
+      </c>
+    </row>
+    <row r="41" spans="6:11">
+      <c r="F41" s="3">
+        <f>RATE(4, G39, -F40, G37)</f>
+        <v>8.570000000003386E-2</v>
+      </c>
+      <c r="G41">
+        <f>G39/(1+$F$41)^G38</f>
+        <v>7.8935249148012643</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:J41" si="4">H39/(1+$F$41)^H38</f>
+        <v>7.2704475589951363</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>6.6965529695080672</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>78.139474556684476</v>
+      </c>
+      <c r="K41">
+        <f>SUM(G41:J41)</f>
+        <v>99.999999999988944</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/BAF510채권/hw2/hw2.xlsx
+++ b/BAF510채권/hw2/hw2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VSCodeProjects\KAIST_MFE\BAF510채권\hw2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlje\VSCodeProjects\KAIST_MFE\BAF510채권\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9253D66B-177B-4634-8CD6-F9CC272B8D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0309D81B-0283-4ACE-9B4E-74844D3F0A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6765" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,13 +62,28 @@
   <si>
     <t>sum</t>
   </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>inverted power</t>
+  </si>
+  <si>
+    <t>forward_rng</t>
+  </si>
+  <si>
+    <t>1+forward/2</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,12 +102,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,17 +130,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -403,21 +427,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D4A148-0405-491E-A6F8-7A15A4094940}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,17 +453,29 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -447,11 +485,14 @@
       <c r="C2">
         <v>5.36</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <f>C2/100</f>
         <v>5.3600000000000002E-2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4">
         <f>D2</f>
         <v>5.3600000000000002E-2</v>
       </c>
@@ -459,8 +500,19 @@
         <f>1/(1+F2)^A2</f>
         <v>0.97423139106729983</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="4">
+        <f>2*( (1+F3/2)^B3 / (1+F$2/2) / K2 -1)</f>
+        <v>4.6605965134398186E-2</v>
+      </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT("[", A2, ",", A3, "]")</f>
+        <v>[0.5,1]</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>1</v>
       </c>
@@ -470,29 +522,80 @@
       <c r="C3">
         <v>5.01</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <f t="shared" ref="D3:D21" si="0">C3/100</f>
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4">
+        <f>D3</f>
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="1">1/(1+F3)^A3</f>
+        <v>0.95229025807065992</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H21" si="2">2*( (1+F4/2)^B4 / (1+F$2/2) / K3 -1)</f>
+        <v>4.4074726047729218E-2</v>
+      </c>
+      <c r="I3" t="str">
+        <f>_xlfn.CONCAT("[", A3, ",", A4, "]")</f>
+        <v>[1,1.5]</v>
+      </c>
+      <c r="J3">
+        <f>1+H2/2</f>
+        <v>1.0233029825671991</v>
+      </c>
+      <c r="K3">
+        <f>PRODUCT(J$3:J3)</f>
+        <v>1.0233029825671991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1.5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C4">
+        <f>C3+(C5-C3)/2</f>
+        <v>4.8149999999999995</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>4.8149999999999998E-2</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="4">
+        <f>2*( ( (1+D4/2) / (1 - D4/2 * SUM(G$2:G3) ) )^(1/B4) - 1)</f>
+        <v>4.80896045337742E-2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.93197095948783493</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0134637914211346E-2</v>
+      </c>
+      <c r="I4" t="str">
+        <f>_xlfn.CONCAT("[", A4, ",", A5, "]")</f>
+        <v>[1.5,2]</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J21" si="3">1+H3/2</f>
+        <v>1.0220373630238646</v>
+      </c>
+      <c r="K4">
+        <f>PRODUCT(J$3:J4)</f>
+        <v>1.0458538818774359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
@@ -502,30 +605,78 @@
       <c r="C5">
         <v>4.62</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="4">
+        <f>2*( ( (1+D5/2) / (1 - D5/2 * SUM(G$2:G4) ) )^(1/B5) - 1)</f>
+        <v>4.6097959628097929E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.91380870310315188</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1030821565582798E-2</v>
+      </c>
+      <c r="I5" t="str">
+        <f>_xlfn.CONCAT("[", A5, ",", A6, "]")</f>
+        <v>[2,2.5]</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>1.0200673189571057</v>
+      </c>
+      <c r="K5">
+        <f>PRODUCT(J$3:J5)</f>
+        <v>1.0668413653075974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2.5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C6">
+        <f>C5+(C7-C5)/2</f>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="F6" s="4">
+        <f>2*( ( (1+D6/2) / (1 - D6/2 * SUM(G$2:G5) ) )^(1/B6) - 1)</f>
+        <v>4.5083526624590586E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.89561734278161287</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>3.893614763237796E-2</v>
+      </c>
+      <c r="I6" t="str">
+        <f>_xlfn.CONCAT("[", A6, ",", A7, "]")</f>
+        <v>[2.5,3]</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>1.0205154107827914</v>
+      </c>
+      <c r="K6">
+        <f>PRODUCT(J$3:J6)</f>
+        <v>1.0887280541569568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>3</v>
       </c>
@@ -535,60 +686,160 @@
       <c r="C7">
         <v>4.42</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>4.4199999999999996E-2</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="F7" s="4">
+        <f>2*( ( (1+D7/2) / (1 - D7/2 * SUM(G$2:G6) ) )^(1/B7) - 1)</f>
+        <v>4.4057677861237377E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.87867147056496342</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1282229803904169E-2</v>
+      </c>
+      <c r="I7" t="str">
+        <f>_xlfn.CONCAT("[", A7, ",", A8, "]")</f>
+        <v>[3,3.5]</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>1.019468073816189</v>
+      </c>
+      <c r="K7">
+        <f>PRODUCT(J$3:J7)</f>
+        <v>1.1099234922810404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>3.5</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C8">
+        <f>C7+1*(C11-C7)/4</f>
+        <v>4.38</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="4">
+        <f>2*( ( (1+D8/2) / (1 - D8/2 * SUM(G$2:G7) ) )^(1/B8) - 1)</f>
+        <v>4.3660954360589699E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.86107697107855818</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>4.042984737466826E-2</v>
+      </c>
+      <c r="I8" t="str">
+        <f>_xlfn.CONCAT("[", A8, ",", A9, "]")</f>
+        <v>[3.5,4]</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>1.0206411149019521</v>
+      </c>
+      <c r="K8">
+        <f>PRODUCT(J$3:J8)</f>
+        <v>1.1328335506175893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C9">
+        <f>C7+2*(C11-C7)/4</f>
+        <v>4.34</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="F9" s="4">
+        <f>2*( ( (1+D9/2) / (1 - D9/2 * SUM(G$2:G8) ) )^(1/B9) - 1)</f>
+        <v>4.3256786339603615E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.84418013094556998</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>3.9569001269420756E-2</v>
+      </c>
+      <c r="I9" t="str">
+        <f>_xlfn.CONCAT("[", A9, ",", A10, "]")</f>
+        <v>[4,4.5]</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>1.0202149236873341</v>
+      </c>
+      <c r="K9">
+        <f>PRODUCT(J$3:J9)</f>
+        <v>1.1557336943937757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>4.5</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C10">
+        <f>C7+3*(C11-C7)/4</f>
+        <v>4.3</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="F10" s="4">
+        <f>2*( ( (1+D10/2) / (1 - D10/2 * SUM(G$2:G9) ) )^(1/B10) - 1)</f>
+        <v>4.2846703381382856E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.82795717357733156</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8699966786111872E-2</v>
+      </c>
+      <c r="I10" t="str">
+        <f>_xlfn.CONCAT("[", A10, ",", A11, "]")</f>
+        <v>[4.5,5]</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>1.0197845006347104</v>
+      </c>
+      <c r="K10">
+        <f>PRODUCT(J$3:J10)</f>
+        <v>1.1785993084040656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>5</v>
       </c>
@@ -598,60 +849,164 @@
       <c r="C11">
         <v>4.26</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="4">
+        <f>2*( ( (1+D11/2) / (1 - D11/2 * SUM(G$2:G10) ) )^(1/B11) - 1)</f>
+        <v>4.2431650451915548E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.81238529743720711</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3304390899719714E-2</v>
+      </c>
+      <c r="I11" t="str">
+        <f>_xlfn.CONCAT("[", A11, ",", A12, "]")</f>
+        <v>[5,5.5]</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>1.0193499833930559</v>
+      </c>
+      <c r="K11">
+        <f>PRODUCT(J$3:J11)</f>
+        <v>1.2014051854487515</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <f>110/M11</f>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>5.5</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C12">
+        <v>4.2649999999999997</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2649999999999993E-2</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="F12" s="4">
+        <f>2*( ( (1+D12/2) / (1 - D12/2 * SUM(G$2:G11) ) )^(1/B12) - 1)</f>
+        <v>4.2510975086648362E-2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.79534673669141154</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3427689119799773E-2</v>
+      </c>
+      <c r="I12" t="str">
+        <f>_xlfn.CONCAT("[", A12, ",", A13, "]")</f>
+        <v>[5.5,6]</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>1.0216521954498599</v>
+      </c>
+      <c r="K12">
+        <f>PRODUCT(J$3:J12)</f>
+        <v>1.2274182453385629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C13">
+        <v>4.2700000000000005</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="F13" s="4">
+        <f>2*( ( (1+D13/2) / (1 - D13/2 * SUM(G$2:G12) ) )^(1/B13) - 1)</f>
+        <v>4.2587352212640539E-2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.77861951988290445</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3552498021125263E-2</v>
+      </c>
+      <c r="I13" t="str">
+        <f>_xlfn.CONCAT("[", A13, ",", A14, "]")</f>
+        <v>[6,6.5]</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>1.0217138445598999</v>
+      </c>
+      <c r="K13">
+        <f>PRODUCT(J$3:J13)</f>
+        <v>1.2540702143278295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>6.5</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C14">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2750000000000003E-2</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="F14" s="4">
+        <f>2*( ( (1+D14/2) / (1 - D14/2 * SUM(G$2:G13) ) )^(1/B14) - 1)</f>
+        <v>4.2661578011956802E-2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.76219850782280141</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3678858419357702E-2</v>
+      </c>
+      <c r="I14" t="str">
+        <f>_xlfn.CONCAT("[", A14, ",", A15, "]")</f>
+        <v>[6.5,7]</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>1.0217762490105626</v>
+      </c>
+      <c r="K14">
+        <f>PRODUCT(J$3:J14)</f>
+        <v>1.2813791595917621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>7</v>
       </c>
@@ -661,90 +1016,237 @@
       <c r="C15">
         <v>4.28</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <f t="shared" si="0"/>
         <v>4.2800000000000005E-2</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="4">
+        <f>2*( ( (1+D15/2) / (1 - D15/2 * SUM(G$2:G14) ) )^(1/B15) - 1)</f>
+        <v>4.2734224102302321E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.74607863613067849</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2643444971308231E-2</v>
+      </c>
+      <c r="I15" t="str">
+        <f>_xlfn.CONCAT("[", A15, ",", A16, "]")</f>
+        <v>[7,7.5]</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>1.0218394292096789</v>
+      </c>
+      <c r="K15">
+        <f>PRODUCT(J$3:J15)</f>
+        <v>1.3093637490384242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>7.5</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C16">
+        <v>4.2783333333333333</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2783333333333333E-2</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="F16" s="4">
+        <f>2*( ( (1+D16/2) / (1 - D16/2 * SUM(G$2:G15) ) )^(1/B16) - 1)</f>
+        <v>4.2728172034723233E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.73066229260638149</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2613361621957058E-2</v>
+      </c>
+      <c r="I16" t="str">
+        <f>_xlfn.CONCAT("[", A16, ",", A17, "]")</f>
+        <v>[7.5,8]</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>1.0213217224856541</v>
+      </c>
+      <c r="K16">
+        <f>PRODUCT(J$3:J16)</f>
+        <v>1.3372816395281972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C17">
+        <v>4.2766666666666664</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2766666666666661E-2</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="F17" s="4">
+        <f>2*( ( (1+D17/2) / (1 - D17/2 * SUM(G$2:G16) ) )^(1/B17) - 1)</f>
+        <v>4.2720996194869798E-2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.71557482240600878</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2582772177002681E-2</v>
+      </c>
+      <c r="I17" t="str">
+        <f>_xlfn.CONCAT("[", A17, ",", A18, "]")</f>
+        <v>[8,8.5]</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>1.0213066808109785</v>
+      </c>
+      <c r="K17">
+        <f>PRODUCT(J$3:J17)</f>
+        <v>1.3657746725760065</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>8.5</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C18">
+        <v>4.2749999999999995</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2749999999999996E-2</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="F18" s="4">
+        <f>2*( ( (1+D18/2) / (1 - D18/2 * SUM(G$2:G17) ) )^(1/B18) - 1)</f>
+        <v>4.2712865111367293E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.7008091741070297</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2551666843389846E-2</v>
+      </c>
+      <c r="I18" t="str">
+        <f>_xlfn.CONCAT("[", A18, ",", A19, "]")</f>
+        <v>[8.5,9]</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>1.0212913860885013</v>
+      </c>
+      <c r="K18">
+        <f>PRODUCT(J$3:J18)</f>
+        <v>1.3948539084397187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C19">
+        <v>4.2733333333333334</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2733333333333332E-2</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="F19" s="4">
+        <f>2*( ( (1+D19/2) / (1 - D19/2 * SUM(G$2:G18) ) )^(1/B19) - 1)</f>
+        <v>4.2703909318294375E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.68635844832732207</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2520035663638378E-2</v>
+      </c>
+      <c r="I19" t="str">
+        <f>_xlfn.CONCAT("[", A19, ",", A20, "]")</f>
+        <v>[9,9.5]</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1.0212758334216949</v>
+      </c>
+      <c r="K19">
+        <f>PRODUCT(J$3:J19)</f>
+        <v>1.4245305878432823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>9.5</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C20">
+        <v>4.2716666666666665</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2716666666666667E-2</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20" s="4">
+        <f>2*( ( (1+D20/2) / (1 - D20/2 * SUM(G$2:G19) ) )^(1/B20) - 1)</f>
+        <v>4.2694231344861056E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.6722158944284703</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="2"/>
+        <v>4.2487868514006433E-2</v>
+      </c>
+      <c r="I20" t="str">
+        <f>_xlfn.CONCAT("[", A20, ",", A21, "]")</f>
+        <v>[9.5,10]</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>1.0212600178318192</v>
+      </c>
+      <c r="K20">
+        <f>PRODUCT(J$3:J20)</f>
+        <v>1.4548161335428025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>10</v>
       </c>
@@ -754,14 +1256,36 @@
       <c r="C21">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
         <v>4.2699999999999995E-2</v>
       </c>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="F21" s="4">
+        <f>2*( ( (1+D21/2) / (1 - D21/2 * SUM(G$2:G20) ) )^(1/B21) - 1)</f>
+        <v>4.2683912708151528E-2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.65837490729143</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" t="str">
+        <f>_xlfn.CONCAT("[", A21, ",", A22, "]")</f>
+        <v>[10,]</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>1.0212439342570032</v>
+      </c>
+      <c r="K21">
+        <f>PRODUCT(J$3:J21)</f>
+        <v>1.4857221518398134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="E22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="33" spans="6:11">
       <c r="F33" t="s">
@@ -770,9 +1294,6 @@
       <c r="G33">
         <v>0.03</v>
       </c>
-      <c r="H33">
-        <v>0.05</v>
-      </c>
       <c r="I33">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -788,16 +1309,12 @@
         <f>1/(1+G33)</f>
         <v>0.970873786407767</v>
       </c>
-      <c r="H34">
-        <f t="shared" ref="H34:J34" si="1">1/(1+H33)</f>
-        <v>0.95238095238095233</v>
-      </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I34:J34" si="4">1/(1+I33)</f>
         <v>0.93457943925233644</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.9174311926605504</v>
       </c>
     </row>
@@ -810,9 +1327,6 @@
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
       <c r="I38">
         <v>3</v>
       </c>
@@ -831,12 +1345,8 @@
         <f>$G$37*$F$39</f>
         <v>8.57</v>
       </c>
-      <c r="H39">
-        <f t="shared" ref="H39:I39" si="2">$G$37*$F$39</f>
-        <v>8.57</v>
-      </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f>$G$37*$F$39</f>
         <v>8.57</v>
       </c>
       <c r="J39">
@@ -852,25 +1362,21 @@
         <f>G39*(G34)^G38</f>
         <v>8.3203883495145643</v>
       </c>
-      <c r="H40">
-        <f t="shared" ref="H40:J40" si="3">H39*(H34)^H38</f>
-        <v>7.7732426303854876</v>
-      </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I40:J40" si="5">I39*(I34)^I38</f>
         <v>6.9956728049546015</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76.913725165348367</v>
       </c>
       <c r="K40">
         <f>SUM(G40:J40)</f>
-        <v>100.00302895020302</v>
+        <v>92.229786319817535</v>
       </c>
     </row>
     <row r="41" spans="6:11">
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <f>RATE(4, G39, -F40, G37)</f>
         <v>8.570000000003386E-2</v>
       </c>
@@ -878,21 +1384,17 @@
         <f>G39/(1+$F$41)^G38</f>
         <v>7.8935249148012643</v>
       </c>
-      <c r="H41">
-        <f t="shared" ref="H41:J41" si="4">H39/(1+$F$41)^H38</f>
-        <v>7.2704475589951363</v>
-      </c>
       <c r="I41">
-        <f t="shared" si="4"/>
+        <f>I39/(1+$F$41)^I38</f>
         <v>6.6965529695080672</v>
       </c>
       <c r="J41">
-        <f t="shared" si="4"/>
+        <f>J39/(1+$F$41)^J38</f>
         <v>78.139474556684476</v>
       </c>
       <c r="K41">
         <f>SUM(G41:J41)</f>
-        <v>99.999999999988944</v>
+        <v>92.729552440993814</v>
       </c>
     </row>
   </sheetData>
